--- a/restAPI/UPLOAD_FOLDER/tryClean.xlsx
+++ b/restAPI/UPLOAD_FOLDER/tryClean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nina\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A633E750-2FF8-421D-A4C8-694ED821DEDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72A6E6D-3BD7-4413-B10A-9B5C902E2A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{028A7CC4-C82F-40E9-B977-10C38C19699B}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{028A7CC4-C82F-40E9-B977-10C38C19699B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Value</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>pat</t>
+  </si>
+  <si>
+    <t>tat</t>
   </si>
 </sst>
 </file>
@@ -494,15 +503,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6231B932-823D-471E-994F-374B6FBB793E}">
-  <dimension ref="B1:V3"/>
+  <dimension ref="B1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -566,8 +575,11 @@
       <c r="V1" t="s">
         <v>22</v>
       </c>
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1234</v>
       </c>
@@ -607,6 +619,9 @@
       <c r="N2">
         <v>3</v>
       </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
       <c r="P2">
         <v>33</v>
       </c>
@@ -628,8 +643,11 @@
       <c r="V2" t="s">
         <v>23</v>
       </c>
+      <c r="W2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1567</v>
       </c>
@@ -648,6 +666,9 @@
       <c r="G3">
         <v>78</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
       <c r="I3">
         <v>97</v>
       </c>
@@ -689,6 +710,9 @@
       </c>
       <c r="V3" t="s">
         <v>28</v>
+      </c>
+      <c r="W3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/restAPI/UPLOAD_FOLDER/tryClean.xlsx
+++ b/restAPI/UPLOAD_FOLDER/tryClean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nina\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72A6E6D-3BD7-4413-B10A-9B5C902E2A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB33C6A-9626-4415-9188-25A7BEFF7DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{028A7CC4-C82F-40E9-B977-10C38C19699B}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="B1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,10 +664,7 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>78</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="I3">
         <v>97</v>
